--- a/input_files/discount_curve.xlsx
+++ b/input_files/discount_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\finance_course\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4FC24-A423-44DE-839B-716246FF9B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC77461-369F-48D8-BC63-B3252AA7A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="-13815" windowWidth="26220" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13740" yWindow="-14655" windowWidth="20235" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>dfs</t>
   </si>
   <si>
-    <t>months</t>
+    <t>maturities</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>21M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>96M</t>
+  </si>
+  <si>
+    <t>108M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>132M</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>180M</t>
+  </si>
+  <si>
+    <t>216M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>360M</t>
+  </si>
+  <si>
+    <t>480M</t>
+  </si>
+  <si>
+    <t>600M</t>
+  </si>
+  <si>
+    <t>720M</t>
   </si>
 </sst>
 </file>
@@ -406,12 +505,12 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -426,8 +525,8 @@
       <c r="A2" s="1">
         <v>1.000292</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -435,8 +534,8 @@
       <c r="A3" s="1">
         <v>1.000588</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -444,8 +543,8 @@
       <c r="A4" s="1">
         <v>1.0008900000000001</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -453,8 +552,8 @@
       <c r="A5" s="1">
         <v>1.0011680000000001</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -462,8 +561,8 @@
       <c r="A6" s="1">
         <v>1.0014700000000001</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -471,228 +570,253 @@
       <c r="A7" s="1">
         <v>1.001768</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="1">
         <v>1.0020709999999999</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1">
         <v>1.002365</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1">
         <v>1.002669</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11" s="1">
         <v>1.0029729999999999</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="1">
         <v>1.003258</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="1">
         <v>1.0035609999999999</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="1">
         <v>1.0044599999999999</v>
       </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="1">
         <v>1.0053000000000001</v>
       </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="1">
         <v>1.006143</v>
       </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="1">
         <v>1.006931</v>
       </c>
-      <c r="B17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="18">
       <c r="A18" s="1">
         <v>1.0090619999999999</v>
       </c>
-      <c r="B18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="18">
       <c r="A19" s="1">
         <v>1.00932</v>
       </c>
-      <c r="B19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" s="1">
         <v>1.007101</v>
       </c>
-      <c r="B20">
-        <f>48+12</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="18">
       <c r="A21" s="1">
         <v>1.0018990000000001</v>
       </c>
-      <c r="B21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="18">
       <c r="A22" s="1">
         <v>0.99379499999999998</v>
       </c>
-      <c r="B22">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="18">
       <c r="A23" s="1">
         <v>0.98333000000000004</v>
       </c>
-      <c r="B23">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="18">
       <c r="A24" s="1">
         <v>0.97101000000000004</v>
       </c>
-      <c r="B24">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" s="1">
         <v>0.95723199999999997</v>
       </c>
-      <c r="B25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="18">
       <c r="A26" s="1">
         <v>0.942689</v>
       </c>
-      <c r="B26">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="18">
       <c r="A27" s="1">
         <v>0.92772500000000002</v>
       </c>
-      <c r="B27">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="18">
       <c r="A28" s="1">
         <v>0.88314899999999996</v>
       </c>
-      <c r="B28">
-        <f>144+36</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="18">
       <c r="A29" s="1">
         <v>0.81781099999999995</v>
       </c>
-      <c r="B29">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="18">
       <c r="A30" s="1">
         <v>0.76554800000000001</v>
       </c>
-      <c r="B30">
-        <f>216+12*7</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="18">
       <c r="A31" s="1">
         <v>0.71988700000000005</v>
       </c>
-      <c r="B31">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="18">
       <c r="A32" s="1">
         <v>0.64350600000000002</v>
       </c>
-      <c r="B32">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" s="1">
         <v>0.59282000000000001</v>
       </c>
-      <c r="B33">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="18">
       <c r="A34" s="1">
         <v>0.54547299999999999</v>
       </c>
-      <c r="B34">
-        <v>720</v>
-      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
